--- a/prompt_convert.xlsx
+++ b/prompt_convert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3ED163-5DCB-4A8B-9194-6431A692D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D5A4B-D4D6-4457-BBCF-51A6E3A982F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1275" windowWidth="21720" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="1290" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>PROMPT</t>
   </si>
   <si>
-    <t>Kaela standing before the mysterious pod</t>
-  </si>
-  <si>
     <t>A beautiful sunset over the ocean</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>A peaceful forest with sunlight filtering through trees</t>
+  </si>
+  <si>
+    <t>chào cu</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
